--- a/mereni_MD/Prumery/Sval3.xlsx
+++ b/mereni_MD/Prumery/Sval3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828989FE-4BF5-4DBB-BD20-2CC2A92CEA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5877CA6-F8AB-4E4A-8159-99661AD76D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="D6:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>AVERAGE(D$8:D$15)</f>
-        <v>18.359500000000001</v>
+        <v>1.8359500000000002</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:J6" si="0">AVERAGE(E$8:E$15)</f>
@@ -399,7 +399,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.7230833333333333</v>
+        <v>0.27230833333333332</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -432,7 +432,7 @@
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8">
-        <v>18.350000000000001</v>
+        <v>1.835</v>
       </c>
       <c r="E8">
         <v>554.303</v>
@@ -441,7 +441,7 @@
         <v>0.99629999999999996</v>
       </c>
       <c r="H8">
-        <v>2.3022999999999998</v>
+        <v>0.23022999999999999</v>
       </c>
       <c r="I8">
         <v>-7.0359999999999996</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9">
-        <v>18.492999999999999</v>
+        <v>1.8492999999999999</v>
       </c>
       <c r="E9">
         <v>570.89</v>
@@ -461,7 +461,7 @@
         <v>0.99539999999999995</v>
       </c>
       <c r="H9">
-        <v>2.343</v>
+        <v>0.23430000000000001</v>
       </c>
       <c r="I9">
         <v>-4.2507999999999999</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10">
-        <v>18.36</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="E10">
         <v>624.59</v>
@@ -481,7 +481,7 @@
         <v>0.996</v>
       </c>
       <c r="H10">
-        <v>2.9799000000000002</v>
+        <v>0.29798999999999998</v>
       </c>
       <c r="I10">
         <v>3.9167000000000001</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11">
-        <v>18.161999999999999</v>
+        <v>1.8162</v>
       </c>
       <c r="E11">
         <v>572.86</v>
@@ -501,7 +501,7 @@
         <v>0.99680000000000002</v>
       </c>
       <c r="H11">
-        <v>2.8835000000000002</v>
+        <v>0.28835</v>
       </c>
       <c r="I11">
         <v>-2.6080000000000001</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12">
-        <v>18.257000000000001</v>
+        <v>1.8257000000000001</v>
       </c>
       <c r="E12">
         <v>558.39</v>
@@ -521,7 +521,7 @@
         <v>0.99670000000000003</v>
       </c>
       <c r="H12">
-        <v>2.8976000000000002</v>
+        <v>0.28976000000000002</v>
       </c>
       <c r="I12">
         <v>-5.5675999999999997</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13">
-        <v>18.535</v>
+        <v>1.8534999999999999</v>
       </c>
       <c r="E13">
         <v>550.02</v>
@@ -541,7 +541,7 @@
         <v>0.99619999999999997</v>
       </c>
       <c r="H13">
-        <v>2.9321999999999999</v>
+        <v>0.29321999999999998</v>
       </c>
       <c r="I13">
         <v>-7.2175000000000002</v>
